--- a/Ex9/truth.xlsx
+++ b/Ex9/truth.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omen\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF10F7F0-AADC-4103-886B-0E06A473FEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7E8E07D-635C-4DB6-8E1A-5165ABBFD020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7ECD73F4-CD93-4621-95CE-77B85595DAE8}"/>
   </bookViews>
@@ -33,8 +33,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="31">
   <si>
     <t>TEMP</t>
   </si>
@@ -92,12 +114,48 @@
   <si>
     <t xml:space="preserve">SUMt TO 1 </t>
   </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>INDEX</t>
+  </si>
+  <si>
+    <t>MODEL PARAMATERS</t>
+  </si>
+  <si>
+    <t>lb_temp</t>
+  </si>
+  <si>
+    <t>ub_temp</t>
+  </si>
+  <si>
+    <t>lb_time</t>
+  </si>
+  <si>
+    <t>ub_time</t>
+  </si>
+  <si>
+    <t>ub_change</t>
+  </si>
+  <si>
+    <t>lb_change</t>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>xxxxxx</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -155,6 +213,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -470,22 +534,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E1C4CF-9FBF-42FD-9748-E687D57D8EB3}">
-  <dimension ref="B1:R29"/>
+  <dimension ref="B1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD10" sqref="AD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26">
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
@@ -519,8 +585,23 @@
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="2:26" ht="15" customHeight="1">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -544,8 +625,32 @@
       <c r="R2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2" t="str">
+        <f>DEC2BIN(T2,6)</f>
+        <v>000000</v>
+      </c>
+      <c r="V2">
+        <v>15</v>
+      </c>
+      <c r="W2" t="str">
+        <f>DEC2BIN(V2,6)</f>
+        <v>001111</v>
+      </c>
+      <c r="X2" t="str">
+        <f>BIN2HEX(W2,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -600,8 +705,30 @@
         <f>BIN2HEX(_xlfn.CONCAT(O3:Q3))</f>
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" ref="U3:U66" si="2">DEC2BIN(T3,6)</f>
+        <v>000001</v>
+      </c>
+      <c r="V3">
+        <v>45</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W7" si="3">DEC2BIN(V3,6)</f>
+        <v>101101</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" ref="X3:X7" si="4">BIN2HEX(W3,2)</f>
+        <v>2D</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" spans="2:26">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -621,15 +748,15 @@
         <v>0</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H29" si="2">SUM(E4:F4)-G4</f>
+        <f t="shared" ref="H4:H29" si="5">SUM(E4:F4)-G4</f>
         <v>1</v>
       </c>
       <c r="K4" s="2" t="str">
-        <f t="shared" ref="K4:M29" si="3">DEC2BIN(1,2)</f>
+        <f t="shared" ref="K4:M29" si="6">DEC2BIN(1,2)</f>
         <v>01</v>
       </c>
       <c r="L4" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="M4" s="2" t="str">
@@ -637,11 +764,11 @@
         <v>10</v>
       </c>
       <c r="N4" s="2" t="str">
-        <f t="shared" ref="N4:N29" si="4">BIN2HEX(_xlfn.CONCAT(K4:M4))</f>
+        <f t="shared" ref="N4:N29" si="7">BIN2HEX(_xlfn.CONCAT(K4:M4))</f>
         <v>16</v>
       </c>
       <c r="O4" s="2" t="str">
-        <f t="shared" ref="O4:O29" si="5">DEC2BIN(E4,2)</f>
+        <f t="shared" ref="O4:O29" si="8">DEC2BIN(E4,2)</f>
         <v>00</v>
       </c>
       <c r="P4" s="2" t="str">
@@ -653,11 +780,33 @@
         <v>00</v>
       </c>
       <c r="R4" s="2" t="str">
-        <f t="shared" ref="R4:R29" si="6">BIN2HEX(_xlfn.CONCAT(O4:Q4))</f>
+        <f t="shared" ref="R4:R29" si="9">BIN2HEX(_xlfn.CONCAT(O4:Q4))</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="2"/>
+        <v>000010</v>
+      </c>
+      <c r="V4">
+        <v>10</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="3"/>
+        <v>001010</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="4"/>
+        <v>0A</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" spans="2:26">
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
@@ -677,15 +826,15 @@
         <v>0</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K5" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="L5" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="M5" s="2" t="str">
@@ -693,11 +842,11 @@
         <v>11</v>
       </c>
       <c r="N5" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>17</v>
       </c>
       <c r="O5" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
       <c r="P5" s="2" t="str">
@@ -709,11 +858,33 @@
         <v>00</v>
       </c>
       <c r="R5" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="2"/>
+        <v>000011</v>
+      </c>
+      <c r="V5">
+        <v>40</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="3"/>
+        <v>101000</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="4"/>
+    </row>
+    <row r="6" spans="2:26">
       <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
@@ -733,11 +904,11 @@
         <v>2</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K6" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="L6" s="2" t="str">
@@ -745,15 +916,15 @@
         <v>10</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" ref="M6" si="7">DEC2BIN(1,2)</f>
+        <f t="shared" ref="M6" si="10">DEC2BIN(1,2)</f>
         <v>01</v>
       </c>
       <c r="N6" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>19</v>
       </c>
       <c r="O6" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="P6" s="2" t="str">
@@ -765,11 +936,33 @@
         <v>10</v>
       </c>
       <c r="R6" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="2"/>
+        <v>000100</v>
+      </c>
+      <c r="V6">
+        <v>2</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="3"/>
+        <v>000010</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7" spans="2:26">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -789,15 +982,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K7" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="L7" s="2" t="str">
-        <f t="shared" ref="L7:L8" si="8">DEC2BIN(2,2)</f>
+        <f t="shared" ref="L7:L8" si="11">DEC2BIN(2,2)</f>
         <v>10</v>
       </c>
       <c r="M7" s="2" t="str">
@@ -805,11 +998,11 @@
         <v>10</v>
       </c>
       <c r="N7" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1A</v>
       </c>
       <c r="O7" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
       <c r="P7" s="2" t="str">
@@ -821,11 +1014,33 @@
         <v>00</v>
       </c>
       <c r="R7" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="2"/>
+        <v>000101</v>
+      </c>
+      <c r="V7">
+        <v>2</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="3"/>
+        <v>000010</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="4"/>
+        <v>02</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z7" s="4"/>
+    </row>
+    <row r="8" spans="2:26">
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
@@ -845,15 +1060,15 @@
         <v>2</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K8" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="L8" s="2" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="M8" s="2" t="str">
@@ -861,11 +1076,11 @@
         <v>11</v>
       </c>
       <c r="N8" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1B</v>
       </c>
       <c r="O8" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="P8" s="2" t="str">
@@ -877,11 +1092,27 @@
         <v>10</v>
       </c>
       <c r="R8" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="2"/>
+        <v>000110</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
       <c r="B9" s="2" t="s">
         <v>5</v>
       </c>
@@ -901,11 +1132,11 @@
         <v>2</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="L9" s="2" t="str">
@@ -913,15 +1144,15 @@
         <v>11</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" ref="M9" si="9">DEC2BIN(1,2)</f>
+        <f t="shared" ref="M9" si="12">DEC2BIN(1,2)</f>
         <v>01</v>
       </c>
       <c r="N9" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1D</v>
       </c>
       <c r="O9" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="P9" s="2" t="str">
@@ -933,11 +1164,27 @@
         <v>10</v>
       </c>
       <c r="R9" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="2"/>
+        <v>000111</v>
+      </c>
+      <c r="V9" t="s">
+        <v>29</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26">
       <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
@@ -957,15 +1204,15 @@
         <v>1</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K10" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="L10" s="2" t="str">
-        <f t="shared" ref="L10:L11" si="10">DEC2BIN(3,2)</f>
+        <f t="shared" ref="L10:L11" si="13">DEC2BIN(3,2)</f>
         <v>11</v>
       </c>
       <c r="M10" s="2" t="str">
@@ -973,11 +1220,11 @@
         <v>10</v>
       </c>
       <c r="N10" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1E</v>
       </c>
       <c r="O10" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="P10" s="2" t="str">
@@ -989,11 +1236,27 @@
         <v>01</v>
       </c>
       <c r="R10" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T10">
+        <v>8</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="2"/>
+        <v>001000</v>
+      </c>
+      <c r="V10" t="s">
+        <v>29</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1013,15 +1276,15 @@
         <v>2</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K11" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="L11" s="2" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="M11" s="2" t="str">
@@ -1029,11 +1292,11 @@
         <v>11</v>
       </c>
       <c r="N11" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1F</v>
       </c>
       <c r="O11" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="P11" s="2" t="str">
@@ -1045,11 +1308,27 @@
         <v>10</v>
       </c>
       <c r="R11" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T11">
+        <v>9</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="2"/>
+        <v>001001</v>
+      </c>
+      <c r="V11" t="s">
+        <v>29</v>
+      </c>
+      <c r="W11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26">
       <c r="B12" s="2" t="s">
         <v>1</v>
       </c>
@@ -1069,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K12" s="2" t="str">
@@ -1081,15 +1360,15 @@
         <v>01</v>
       </c>
       <c r="M12" s="2" t="str">
-        <f t="shared" ref="M12" si="11">DEC2BIN(1,2)</f>
+        <f t="shared" ref="M12" si="14">DEC2BIN(1,2)</f>
         <v>01</v>
       </c>
       <c r="N12" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>25</v>
       </c>
       <c r="O12" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
       <c r="P12" s="2" t="str">
@@ -1101,11 +1380,27 @@
         <v>01</v>
       </c>
       <c r="R12" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T12">
+        <v>10</v>
+      </c>
+      <c r="U12" t="str">
+        <f t="shared" si="2"/>
+        <v>001010</v>
+      </c>
+      <c r="V12" t="s">
+        <v>29</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26">
       <c r="B13" s="2" t="s">
         <v>1</v>
       </c>
@@ -1125,15 +1420,15 @@
         <v>0</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K13" s="2" t="str">
-        <f t="shared" ref="K13:L20" si="12">DEC2BIN(2,2)</f>
+        <f t="shared" ref="K13:L20" si="15">DEC2BIN(2,2)</f>
         <v>10</v>
       </c>
       <c r="L13" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="M13" s="2" t="str">
@@ -1141,11 +1436,11 @@
         <v>10</v>
       </c>
       <c r="N13" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>26</v>
       </c>
       <c r="O13" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
       <c r="P13" s="2" t="str">
@@ -1157,11 +1452,27 @@
         <v>00</v>
       </c>
       <c r="R13" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T13">
+        <v>11</v>
+      </c>
+      <c r="U13" t="str">
+        <f t="shared" si="2"/>
+        <v>001011</v>
+      </c>
+      <c r="V13" t="s">
+        <v>29</v>
+      </c>
+      <c r="W13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26">
       <c r="B14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1181,15 +1492,15 @@
         <v>1</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K14" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L14" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="M14" s="2" t="str">
@@ -1197,11 +1508,11 @@
         <v>11</v>
       </c>
       <c r="N14" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>27</v>
       </c>
       <c r="O14" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
       <c r="P14" s="2" t="str">
@@ -1213,11 +1524,27 @@
         <v>01</v>
       </c>
       <c r="R14" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14" t="str">
+        <f t="shared" si="2"/>
+        <v>001100</v>
+      </c>
+      <c r="V14" t="s">
+        <v>29</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26">
       <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
@@ -1237,11 +1564,11 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K15" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L15" s="2" t="str">
@@ -1249,15 +1576,15 @@
         <v>10</v>
       </c>
       <c r="M15" s="2" t="str">
-        <f t="shared" ref="M15" si="13">DEC2BIN(1,2)</f>
+        <f t="shared" ref="M15" si="16">DEC2BIN(1,2)</f>
         <v>01</v>
       </c>
       <c r="N15" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>29</v>
       </c>
       <c r="O15" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="P15" s="2" t="str">
@@ -1269,11 +1596,27 @@
         <v>01</v>
       </c>
       <c r="R15" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T15">
+        <v>13</v>
+      </c>
+      <c r="U15" t="str">
+        <f t="shared" si="2"/>
+        <v>001101</v>
+      </c>
+      <c r="V15" t="s">
+        <v>29</v>
+      </c>
+      <c r="W15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26">
       <c r="B16" s="2" t="s">
         <v>1</v>
       </c>
@@ -1293,15 +1636,15 @@
         <v>0</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L16" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="M16" s="2" t="str">
@@ -1309,11 +1652,11 @@
         <v>10</v>
       </c>
       <c r="N16" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2A</v>
       </c>
       <c r="O16" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
       <c r="P16" s="2" t="str">
@@ -1325,11 +1668,27 @@
         <v>00</v>
       </c>
       <c r="R16" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="T16">
+        <v>14</v>
+      </c>
+      <c r="U16" t="str">
+        <f t="shared" si="2"/>
+        <v>001110</v>
+      </c>
+      <c r="V16" t="s">
+        <v>29</v>
+      </c>
+      <c r="W16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" s="2" t="s">
         <v>1</v>
       </c>
@@ -1349,15 +1708,15 @@
         <v>2</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L17" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="M17" s="2" t="str">
@@ -1365,11 +1724,11 @@
         <v>11</v>
       </c>
       <c r="N17" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2B</v>
       </c>
       <c r="O17" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="P17" s="2" t="str">
@@ -1381,11 +1740,27 @@
         <v>10</v>
       </c>
       <c r="R17" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T17">
+        <v>15</v>
+      </c>
+      <c r="U17" t="str">
+        <f t="shared" si="2"/>
+        <v>001111</v>
+      </c>
+      <c r="V17" t="s">
+        <v>29</v>
+      </c>
+      <c r="W17" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18" s="2" t="s">
         <v>1</v>
       </c>
@@ -1405,11 +1780,11 @@
         <v>2</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K18" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L18" s="2" t="str">
@@ -1417,15 +1792,15 @@
         <v>11</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f t="shared" ref="M18" si="14">DEC2BIN(1,2)</f>
+        <f t="shared" ref="M18" si="17">DEC2BIN(1,2)</f>
         <v>01</v>
       </c>
       <c r="N18" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2D</v>
       </c>
       <c r="O18" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="P18" s="2" t="str">
@@ -1437,11 +1812,27 @@
         <v>10</v>
       </c>
       <c r="R18" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T18">
+        <v>16</v>
+      </c>
+      <c r="U18" t="str">
+        <f t="shared" si="2"/>
+        <v>010000</v>
+      </c>
+      <c r="V18" t="s">
+        <v>29</v>
+      </c>
+      <c r="W18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
       <c r="B19" s="2" t="s">
         <v>1</v>
       </c>
@@ -1461,15 +1852,15 @@
         <v>1</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K19" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L19" s="2" t="str">
-        <f t="shared" ref="L19:L20" si="15">DEC2BIN(3,2)</f>
+        <f t="shared" ref="L19:L20" si="18">DEC2BIN(3,2)</f>
         <v>11</v>
       </c>
       <c r="M19" s="2" t="str">
@@ -1477,27 +1868,43 @@
         <v>10</v>
       </c>
       <c r="N19" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2E</v>
       </c>
       <c r="O19" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="P19" s="2" t="str">
-        <f t="shared" ref="P19:P29" si="16">DEC2BIN(F19,2)</f>
+        <f t="shared" ref="P19:P29" si="19">DEC2BIN(F19,2)</f>
         <v>00</v>
       </c>
       <c r="Q19" s="2" t="str">
-        <f t="shared" ref="Q19:Q29" si="17">DEC2BIN(G19,2)</f>
+        <f t="shared" ref="Q19:Q29" si="20">DEC2BIN(G19,2)</f>
         <v>01</v>
       </c>
       <c r="R19" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T19">
+        <v>17</v>
+      </c>
+      <c r="U19" t="str">
+        <f t="shared" si="2"/>
+        <v>010001</v>
+      </c>
+      <c r="V19" t="s">
+        <v>29</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" s="2" t="s">
         <v>1</v>
       </c>
@@ -1517,15 +1924,15 @@
         <v>0</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K20" s="2" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="L20" s="2" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="18"/>
         <v>11</v>
       </c>
       <c r="M20" s="2" t="str">
@@ -1533,27 +1940,43 @@
         <v>11</v>
       </c>
       <c r="N20" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2F</v>
       </c>
       <c r="O20" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
       <c r="P20" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>00</v>
       </c>
       <c r="Q20" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>00</v>
       </c>
       <c r="R20" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="T20">
+        <v>18</v>
+      </c>
+      <c r="U20" t="str">
+        <f t="shared" si="2"/>
+        <v>010010</v>
+      </c>
+      <c r="V20" t="s">
+        <v>29</v>
+      </c>
+      <c r="W20" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" s="2" t="s">
         <v>4</v>
       </c>
@@ -1573,7 +1996,7 @@
         <v>2</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K21" s="2" t="str">
@@ -1585,31 +2008,47 @@
         <v>01</v>
       </c>
       <c r="M21" s="2" t="str">
-        <f t="shared" ref="M21" si="18">DEC2BIN(1,2)</f>
+        <f t="shared" ref="M21" si="21">DEC2BIN(1,2)</f>
         <v>01</v>
       </c>
       <c r="N21" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="O21" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
       <c r="P21" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="Q21" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="R21" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T21">
+        <v>19</v>
+      </c>
+      <c r="U21" t="str">
+        <f t="shared" si="2"/>
+        <v>010011</v>
+      </c>
+      <c r="V21" t="s">
+        <v>29</v>
+      </c>
+      <c r="W21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22" s="2" t="s">
         <v>4</v>
       </c>
@@ -1629,15 +2068,18 @@
         <v>2</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
       </c>
       <c r="K22" s="2" t="str">
-        <f t="shared" ref="K22:L29" si="19">DEC2BIN(3,2)</f>
+        <f t="shared" ref="K22:L29" si="22">DEC2BIN(3,2)</f>
         <v>11</v>
       </c>
       <c r="L22" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="M22" s="2" t="str">
@@ -1645,27 +2087,43 @@
         <v>10</v>
       </c>
       <c r="N22" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>36</v>
       </c>
       <c r="O22" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
       <c r="P22" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="Q22" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="R22" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T22">
+        <v>20</v>
+      </c>
+      <c r="U22" t="str">
+        <f t="shared" si="2"/>
+        <v>010100</v>
+      </c>
+      <c r="V22" t="s">
+        <v>29</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="X22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" s="2" t="s">
         <v>4</v>
       </c>
@@ -1685,15 +2143,15 @@
         <v>2</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K23" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="L23" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>01</v>
       </c>
       <c r="M23" s="2" t="str">
@@ -1701,27 +2159,46 @@
         <v>11</v>
       </c>
       <c r="N23" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>37</v>
       </c>
       <c r="O23" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>00</v>
       </c>
       <c r="P23" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>11</v>
       </c>
       <c r="Q23" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="R23" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>E</v>
       </c>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T23">
+        <v>21</v>
+      </c>
+      <c r="U23" t="str">
+        <f t="shared" si="2"/>
+        <v>010101</v>
+      </c>
+      <c r="V23">
+        <f>HEX2DEC(R3)</f>
+        <v>9</v>
+      </c>
+      <c r="W23" t="str" cm="1">
+        <f t="array" ref="W23">IF(ISNUMBER(V23),DEC2BIN(V23,6),xxxxxx)</f>
+        <v>001001</v>
+      </c>
+      <c r="X23" t="str">
+        <f t="shared" ref="X23:X25" si="23">IF(ISNUMBER(V23),DEC2HEX(V23,2),$X$22)</f>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
       <c r="B24" s="2" t="s">
         <v>4</v>
       </c>
@@ -1741,11 +2218,11 @@
         <v>1</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K24" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="L24" s="2" t="str">
@@ -1753,31 +2230,50 @@
         <v>10</v>
       </c>
       <c r="M24" s="2" t="str">
-        <f t="shared" ref="M24" si="20">DEC2BIN(1,2)</f>
+        <f t="shared" ref="M24" si="24">DEC2BIN(1,2)</f>
         <v>01</v>
       </c>
       <c r="N24" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>39</v>
       </c>
       <c r="O24" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="P24" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>00</v>
       </c>
       <c r="Q24" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>01</v>
       </c>
       <c r="R24" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T24">
+        <v>22</v>
+      </c>
+      <c r="U24" t="str">
+        <f t="shared" si="2"/>
+        <v>010110</v>
+      </c>
+      <c r="V24">
+        <f t="shared" ref="V24:V25" si="25">HEX2DEC(R4)</f>
+        <v>4</v>
+      </c>
+      <c r="W24" t="str" cm="1">
+        <f t="array" ref="W24">IF(ISNUMBER(V24),DEC2BIN(V24,6),xxxxxx)</f>
+        <v>000100</v>
+      </c>
+      <c r="X24" t="str">
+        <f t="shared" si="23"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24">
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1797,15 +2293,15 @@
         <v>0</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K25" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="L25" s="2" t="str">
-        <f t="shared" ref="L25:L26" si="21">DEC2BIN(2,2)</f>
+        <f t="shared" ref="L25:L26" si="26">DEC2BIN(2,2)</f>
         <v>10</v>
       </c>
       <c r="M25" s="2" t="str">
@@ -1813,27 +2309,46 @@
         <v>10</v>
       </c>
       <c r="N25" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3A</v>
       </c>
       <c r="O25" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
       <c r="P25" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>00</v>
       </c>
       <c r="Q25" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>00</v>
       </c>
       <c r="R25" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="T25">
+        <v>23</v>
+      </c>
+      <c r="U25" t="str">
+        <f t="shared" si="2"/>
+        <v>010111</v>
+      </c>
+      <c r="V25">
+        <f>HEX2DEC(R5)</f>
+        <v>4</v>
+      </c>
+      <c r="W25" t="str" cm="1">
+        <f t="array" ref="W25">IF(ISNUMBER(V25),DEC2BIN(V25,6),xxxxxx)</f>
+        <v>000100</v>
+      </c>
+      <c r="X25" t="str">
+        <f t="shared" si="23"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24">
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1853,15 +2368,15 @@
         <v>1</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K26" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="L26" s="2" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="26"/>
         <v>10</v>
       </c>
       <c r="M26" s="2" t="str">
@@ -1869,27 +2384,45 @@
         <v>11</v>
       </c>
       <c r="N26" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3B</v>
       </c>
       <c r="O26" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
       <c r="P26" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>01</v>
       </c>
       <c r="Q26" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>01</v>
       </c>
       <c r="R26" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T26">
+        <v>24</v>
+      </c>
+      <c r="U26" t="str">
+        <f t="shared" si="2"/>
+        <v>011000</v>
+      </c>
+      <c r="V26" t="s">
+        <v>29</v>
+      </c>
+      <c r="W26" t="str">
+        <f>IF(ISNUMBER(V26),DEC2BIN(V26,6),$W$22)</f>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X26" t="str">
+        <f>IF(ISNUMBER(V26),DEC2HEX(V26,2),$X$22)</f>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24">
       <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1909,11 +2442,11 @@
         <v>2</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K27" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="L27" s="2" t="str">
@@ -1921,31 +2454,50 @@
         <v>11</v>
       </c>
       <c r="M27" s="2" t="str">
-        <f t="shared" ref="M27" si="22">DEC2BIN(1,2)</f>
+        <f t="shared" ref="M27" si="27">DEC2BIN(1,2)</f>
         <v>01</v>
       </c>
       <c r="N27" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3D</v>
       </c>
       <c r="O27" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="P27" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>00</v>
       </c>
       <c r="Q27" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="R27" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T27">
+        <v>25</v>
+      </c>
+      <c r="U27" t="str">
+        <f t="shared" si="2"/>
+        <v>011001</v>
+      </c>
+      <c r="V27">
+        <f>HEX2DEC(R6)</f>
+        <v>38</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" ref="W27:W65" si="28">IF(ISNUMBER(V27),DEC2BIN(V27,6),$W$22)</f>
+        <v>100110</v>
+      </c>
+      <c r="X27" t="str">
+        <f t="shared" ref="X27:X65" si="29">IF(ISNUMBER(V27),DEC2HEX(V27,2),$X$22)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24">
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
@@ -1965,15 +2517,15 @@
         <v>1</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K28" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="L28" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="M28" s="2" t="str">
@@ -1981,27 +2533,46 @@
         <v>10</v>
       </c>
       <c r="N28" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3E</v>
       </c>
       <c r="O28" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="P28" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>00</v>
       </c>
       <c r="Q28" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>01</v>
       </c>
       <c r="R28" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>21</v>
       </c>
-    </row>
-    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="T28">
+        <v>26</v>
+      </c>
+      <c r="U28" t="str">
+        <f t="shared" si="2"/>
+        <v>011010</v>
+      </c>
+      <c r="V28">
+        <f t="shared" ref="V28:V29" si="30">HEX2DEC(R7)</f>
+        <v>16</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="28"/>
+        <v>010000</v>
+      </c>
+      <c r="X28" t="str">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24">
       <c r="B29" s="2" t="s">
         <v>4</v>
       </c>
@@ -2021,15 +2592,15 @@
         <v>0</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="K29" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="L29" s="2" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="M29" s="2" t="str">
@@ -2037,29 +2608,790 @@
         <v>11</v>
       </c>
       <c r="N29" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3F</v>
       </c>
       <c r="O29" s="2" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>01</v>
       </c>
       <c r="P29" s="2" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>00</v>
       </c>
       <c r="Q29" s="2" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>00</v>
       </c>
       <c r="R29" s="2" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
+        <v>10</v>
+      </c>
+      <c r="T29">
+        <v>27</v>
+      </c>
+      <c r="U29" t="str">
+        <f t="shared" si="2"/>
+        <v>011011</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="30"/>
+        <v>38</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="28"/>
+        <v>100110</v>
+      </c>
+      <c r="X29" t="str">
+        <f t="shared" si="29"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24">
+      <c r="T30">
+        <v>28</v>
+      </c>
+      <c r="U30" t="str">
+        <f t="shared" si="2"/>
+        <v>011100</v>
+      </c>
+      <c r="V30" t="s">
+        <v>29</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X30" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24">
+      <c r="T31">
+        <v>29</v>
+      </c>
+      <c r="U31" t="str">
+        <f t="shared" si="2"/>
+        <v>011101</v>
+      </c>
+      <c r="V31">
+        <f>HEX2DEC(R9)</f>
+        <v>50</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="28"/>
+        <v>110010</v>
+      </c>
+      <c r="X31" t="str">
+        <f t="shared" si="29"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24">
+      <c r="T32">
+        <v>30</v>
+      </c>
+      <c r="U32" t="str">
+        <f t="shared" si="2"/>
+        <v>011110</v>
+      </c>
+      <c r="V32">
+        <f t="shared" ref="V32:V33" si="31">HEX2DEC(R10)</f>
+        <v>33</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="28"/>
+        <v>100001</v>
+      </c>
+      <c r="X32" t="str">
+        <f t="shared" si="29"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="20:24">
+      <c r="T33">
+        <v>31</v>
+      </c>
+      <c r="U33" t="str">
+        <f t="shared" si="2"/>
+        <v>011111</v>
+      </c>
+      <c r="V33">
+        <f t="shared" si="31"/>
+        <v>50</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="28"/>
+        <v>110010</v>
+      </c>
+      <c r="X33" t="str">
+        <f t="shared" si="29"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="20:24">
+      <c r="T34">
+        <v>32</v>
+      </c>
+      <c r="U34" t="str">
+        <f t="shared" si="2"/>
+        <v>100000</v>
+      </c>
+      <c r="V34" t="s">
+        <v>29</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X34" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="35" spans="20:24">
+      <c r="T35">
+        <v>33</v>
+      </c>
+      <c r="U35" t="str">
+        <f t="shared" si="2"/>
+        <v>100001</v>
+      </c>
+      <c r="V35" t="s">
+        <v>29</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X35" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="36" spans="20:24">
+      <c r="T36">
+        <v>34</v>
+      </c>
+      <c r="U36" t="str">
+        <f t="shared" si="2"/>
+        <v>100010</v>
+      </c>
+      <c r="V36" t="s">
+        <v>29</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X36" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="37" spans="20:24">
+      <c r="T37">
+        <v>35</v>
+      </c>
+      <c r="U37" t="str">
+        <f t="shared" si="2"/>
+        <v>100011</v>
+      </c>
+      <c r="V37" t="s">
+        <v>29</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X37" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="38" spans="20:24">
+      <c r="T38">
+        <v>36</v>
+      </c>
+      <c r="U38" t="str">
+        <f t="shared" si="2"/>
+        <v>100100</v>
+      </c>
+      <c r="V38" t="s">
+        <v>29</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X38" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="39" spans="20:24">
+      <c r="T39">
+        <v>37</v>
+      </c>
+      <c r="U39" t="str">
+        <f t="shared" si="2"/>
+        <v>100101</v>
+      </c>
+      <c r="V39">
+        <f>HEX2DEC(R12)</f>
+        <v>9</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="28"/>
+        <v>001001</v>
+      </c>
+      <c r="X39" t="str">
+        <f t="shared" si="29"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="40" spans="20:24">
+      <c r="T40">
+        <v>38</v>
+      </c>
+      <c r="U40" t="str">
+        <f t="shared" si="2"/>
+        <v>100110</v>
+      </c>
+      <c r="V40">
+        <f>HEX2DEC(R13)</f>
+        <v>4</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="28"/>
+        <v>000100</v>
+      </c>
+      <c r="X40" t="str">
+        <f t="shared" si="29"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="41" spans="20:24">
+      <c r="T41">
+        <v>39</v>
+      </c>
+      <c r="U41" t="str">
+        <f t="shared" si="2"/>
+        <v>100111</v>
+      </c>
+      <c r="V41">
+        <f>HEX2DEC(R14)</f>
+        <v>9</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="28"/>
+        <v>001001</v>
+      </c>
+      <c r="X41" t="str">
+        <f t="shared" si="29"/>
+        <v>09</v>
+      </c>
+    </row>
+    <row r="42" spans="20:24">
+      <c r="T42">
+        <v>40</v>
+      </c>
+      <c r="U42" t="str">
+        <f t="shared" si="2"/>
+        <v>101000</v>
+      </c>
+      <c r="V42" t="s">
+        <v>29</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X42" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="43" spans="20:24">
+      <c r="T43">
+        <v>41</v>
+      </c>
+      <c r="U43" t="str">
+        <f t="shared" si="2"/>
+        <v>101001</v>
+      </c>
+      <c r="V43">
+        <f>HEX2DEC(R15)</f>
+        <v>33</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="28"/>
+        <v>100001</v>
+      </c>
+      <c r="X43" t="str">
+        <f t="shared" si="29"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="20:24">
+      <c r="T44">
+        <v>42</v>
+      </c>
+      <c r="U44" t="str">
+        <f t="shared" si="2"/>
+        <v>101010</v>
+      </c>
+      <c r="V44">
+        <f>HEX2DEC(R16)</f>
+        <v>16</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="28"/>
+        <v>010000</v>
+      </c>
+      <c r="X44" t="str">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="20:24">
+      <c r="T45">
+        <v>43</v>
+      </c>
+      <c r="U45" t="str">
+        <f t="shared" si="2"/>
+        <v>101011</v>
+      </c>
+      <c r="V45">
+        <f>HEX2DEC(R17)</f>
+        <v>38</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="28"/>
+        <v>100110</v>
+      </c>
+      <c r="X45" t="str">
+        <f t="shared" si="29"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="20:24">
+      <c r="T46">
+        <v>44</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" si="2"/>
+        <v>101100</v>
+      </c>
+      <c r="V46" t="s">
+        <v>29</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="47" spans="20:24">
+      <c r="T47">
+        <v>45</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" si="2"/>
+        <v>101101</v>
+      </c>
+      <c r="V47">
+        <f>HEX2DEC(R18)</f>
+        <v>50</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="28"/>
+        <v>110010</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" si="29"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="20:24">
+      <c r="T48">
+        <v>46</v>
+      </c>
+      <c r="U48" t="str">
+        <f t="shared" si="2"/>
+        <v>101110</v>
+      </c>
+      <c r="V48">
+        <f t="shared" ref="V48:V49" si="32">HEX2DEC(R19)</f>
+        <v>33</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="28"/>
+        <v>100001</v>
+      </c>
+      <c r="X48" t="str">
+        <f t="shared" si="29"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="20:24">
+      <c r="T49">
+        <v>47</v>
+      </c>
+      <c r="U49" t="str">
+        <f t="shared" si="2"/>
+        <v>101111</v>
+      </c>
+      <c r="V49">
+        <f t="shared" si="32"/>
+        <v>16</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="28"/>
+        <v>010000</v>
+      </c>
+      <c r="X49" t="str">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="20:24">
+      <c r="T50">
+        <v>48</v>
+      </c>
+      <c r="U50" t="str">
+        <f t="shared" si="2"/>
+        <v>110000</v>
+      </c>
+      <c r="V50" t="s">
+        <v>29</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X50" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="51" spans="20:24">
+      <c r="T51">
+        <v>49</v>
+      </c>
+      <c r="U51" t="str">
+        <f t="shared" si="2"/>
+        <v>110001</v>
+      </c>
+      <c r="V51" t="s">
+        <v>29</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X51" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="52" spans="20:24">
+      <c r="T52">
+        <v>50</v>
+      </c>
+      <c r="U52" t="str">
+        <f t="shared" si="2"/>
+        <v>110010</v>
+      </c>
+      <c r="V52" t="s">
+        <v>29</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X52" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="53" spans="20:24">
+      <c r="T53">
+        <v>51</v>
+      </c>
+      <c r="U53" t="str">
+        <f t="shared" si="2"/>
+        <v>110011</v>
+      </c>
+      <c r="V53" t="s">
+        <v>29</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X53" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="54" spans="20:24">
+      <c r="T54">
+        <v>52</v>
+      </c>
+      <c r="U54" t="str">
+        <f t="shared" si="2"/>
+        <v>110100</v>
+      </c>
+      <c r="V54" t="s">
+        <v>29</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X54" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="55" spans="20:24">
+      <c r="T55">
+        <v>53</v>
+      </c>
+      <c r="U55" t="str">
+        <f t="shared" si="2"/>
+        <v>110101</v>
+      </c>
+      <c r="V55">
+        <f>HEX2DEC(R21)</f>
+        <v>14</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="28"/>
+        <v>001110</v>
+      </c>
+      <c r="X55" t="str">
+        <f t="shared" si="29"/>
+        <v>0E</v>
+      </c>
+    </row>
+    <row r="56" spans="20:24">
+      <c r="T56">
+        <v>54</v>
+      </c>
+      <c r="U56" t="str">
+        <f t="shared" si="2"/>
+        <v>110110</v>
+      </c>
+      <c r="V56">
+        <f t="shared" ref="V56:V57" si="33">HEX2DEC(R22)</f>
+        <v>14</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="28"/>
+        <v>001110</v>
+      </c>
+      <c r="X56" t="str">
+        <f t="shared" si="29"/>
+        <v>0E</v>
+      </c>
+    </row>
+    <row r="57" spans="20:24">
+      <c r="T57">
+        <v>55</v>
+      </c>
+      <c r="U57" t="str">
+        <f t="shared" si="2"/>
+        <v>110111</v>
+      </c>
+      <c r="V57">
+        <f t="shared" si="33"/>
+        <v>14</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="28"/>
+        <v>001110</v>
+      </c>
+      <c r="X57" t="str">
+        <f t="shared" si="29"/>
+        <v>0E</v>
+      </c>
+    </row>
+    <row r="58" spans="20:24">
+      <c r="T58">
+        <v>56</v>
+      </c>
+      <c r="U58" t="str">
+        <f t="shared" si="2"/>
+        <v>111000</v>
+      </c>
+      <c r="V58" t="s">
+        <v>29</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X58" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="59" spans="20:24">
+      <c r="T59">
+        <v>57</v>
+      </c>
+      <c r="U59" t="str">
+        <f t="shared" si="2"/>
+        <v>111001</v>
+      </c>
+      <c r="V59">
+        <f>HEX2DEC(R24)</f>
+        <v>33</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="28"/>
+        <v>100001</v>
+      </c>
+      <c r="X59" t="str">
+        <f t="shared" si="29"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="20:24">
+      <c r="T60">
+        <v>58</v>
+      </c>
+      <c r="U60" t="str">
+        <f t="shared" si="2"/>
+        <v>111010</v>
+      </c>
+      <c r="V60">
+        <f t="shared" ref="V60:V61" si="34">HEX2DEC(R25)</f>
+        <v>16</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="28"/>
+        <v>010000</v>
+      </c>
+      <c r="X60" t="str">
+        <f t="shared" si="29"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="20:24">
+      <c r="T61">
+        <v>59</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" si="2"/>
+        <v>111011</v>
+      </c>
+      <c r="V61">
+        <f t="shared" si="34"/>
+        <v>21</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="28"/>
+        <v>010101</v>
+      </c>
+      <c r="X61" t="str">
+        <f t="shared" si="29"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="20:24">
+      <c r="T62">
+        <v>60</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="2"/>
+        <v>111100</v>
+      </c>
+      <c r="V62" t="s">
+        <v>29</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="28"/>
+        <v>xxxxxx</v>
+      </c>
+      <c r="X62" t="str">
+        <f t="shared" si="29"/>
+        <v>xx</v>
+      </c>
+    </row>
+    <row r="63" spans="20:24">
+      <c r="T63">
+        <v>61</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="2"/>
+        <v>111101</v>
+      </c>
+      <c r="V63">
+        <f>HEX2DEC(R27)</f>
+        <v>50</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="28"/>
+        <v>110010</v>
+      </c>
+      <c r="X63" t="str">
+        <f t="shared" si="29"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="20:24">
+      <c r="T64">
+        <v>62</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="2"/>
+        <v>111110</v>
+      </c>
+      <c r="V64">
+        <f t="shared" ref="V64:V65" si="35">HEX2DEC(R28)</f>
+        <v>33</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="28"/>
+        <v>100001</v>
+      </c>
+      <c r="X64" t="str">
+        <f t="shared" si="29"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="20:24">
+      <c r="T65">
+        <v>63</v>
+      </c>
+      <c r="U65" t="str">
+        <f>DEC2BIN(T65,6)</f>
+        <v>111111</v>
+      </c>
+      <c r="V65">
+        <f t="shared" si="35"/>
+        <v>16</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="28"/>
+        <v>010000</v>
+      </c>
+      <c r="X65" t="str">
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="O1:R1"/>
+    <mergeCell ref="Z2:Z7"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="O2:Q2"/>
     <mergeCell ref="B1:B2"/>
